--- a/TestCases/Drain Valve Testing.xlsx
+++ b/TestCases/Drain Valve Testing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OVEN_Project\19-08-2023\Oven_Documentations\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -515,35 +515,6 @@
     <t>Update Drain Valve Setting</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Step 1 : Call </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updateDrainValveSetting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with onTimeout and Off Timeout values.
-Step 2: Verify that drainValveOnTimeout and drainValveOffTimeout are updated accordingly.
-Step 3: Simulate a scenario where preheating is not in progress.
-Step 4 : Verify that the OpenDrainValve function is called.</t>
-    </r>
-  </si>
-  <si>
     <t>&gt;Verify that the updateDrainValveSetting function updates the timeout values correctly.</t>
   </si>
   <si>
@@ -562,9 +533,6 @@
     <t>Drain Valve Control - Continuously Open</t>
   </si>
   <si>
-    <t>&gt;The logic attempts to open the drain valve and checks for a timeout. If the timeout is reached, it reports a diagnostic error.</t>
-  </si>
-  <si>
     <t>&gt;Test the behavior of the drain valve control logic when continuously open is required.</t>
   </si>
   <si>
@@ -578,437 +546,6 @@
   </si>
   <si>
     <t>Test the behavior of the drain valve control logic when closing the valve is required.</t>
-  </si>
-  <si>
-    <t>Step 1 : Set ovenPauseControl to FALSE to simulate no oven pause.
-Step 2 : Set drainValveControlState to E_DrainValveIdle.
-Step 3: Call the drainValveControl function.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Step 1 : Set </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ovenPauseControl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to simulate no oven pause.
-Step 2 : Set </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>drainValveControlState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E_closeDrainValve.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Step 3 : Simulate a scenario where the drain valve is open (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IsDrainValveOpen()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> returns TRUE).
-Step 4 : Call the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>drainValveControl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Step 1: Set </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ovenPauseControl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to simulate no oven pause.
-Step 2: Set </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>drainValveControlState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E_openDrainValve.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Step 3: Simulate a scenario where the drain valve is closed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(IsDrainValveClosed()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> returns TRUE).
-Step 4: Call the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>drainValveControl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Step 1: Set </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ovenPauseControl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FALSE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to simulate no oven pause.
-Step 2: Set </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>drainValveControlState</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E_continouslyOpen.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Step 3: Simulate a scenario where the drain valve is closed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(IsDrainValveClosed()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> returns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TRUE).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Step 4: Call the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>drainValveControl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function.</t>
-    </r>
-  </si>
-  <si>
-    <t>&gt;The logic attempts to open the drain valve and checks for a timeout. If the timeout is reached but still the valve not opened, it reports a diagnostic error.</t>
   </si>
   <si>
     <t>&gt;The logic attempts to close the drain valve and checks for a timeout. If the timeout is reached but still the valve not closed, it reports a diagnostic error</t>
@@ -1055,6 +592,470 @@
   </si>
   <si>
     <t>The logic closes the drain valve and returns to the idle state.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1 : Call </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>updateDrainValveSetting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with onTimeout and Off Timeout values.
+Step 2: Verify that drainValveOnTimeout and drainValveOffTimeout are updated accordingly.
+Step 3: Check the preheating is not in progress.
+Step 4 : Verify that the OpenDrainValve function is called.</t>
+    </r>
+  </si>
+  <si>
+    <t>Step 1 : Set ovenPauseControl to FALSE .
+Step 2 : Set drainValveControlState to E_DrainValveIdle.
+Step 3: Call the drainValveControl function.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ovenPauseControl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to simulate no oven pause.
+Step 2: Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drainValveControlState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E_continouslyOpen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 3: Check if the drain valve is already closed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(IsDrainValveClosed()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> returns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TRUE).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 4: Call the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drainValveControl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function.</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;The logic attempts to open the drain valve and checks for a timeout. If the timeout is reached but still the valve not opened means it will reports a diagnostic error.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ovenPauseControl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Step 2: Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drainValveControlState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E_openDrainValve.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 3: Check if the drain valve is already closed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(IsDrainValveClosed()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> returns TRUE).
+Step 4: Call the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drainValveControl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function.</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;The logic attempts to open the drain valve and checks for a timeout. If the timeout is reached but still the valve not opened means it will reports a diagnostic error.
+&gt;If the valve opens once, it will remain open until the state switches to the closed state.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1 : Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ovenPauseControl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FALSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .
+Step 2 : Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drainValveControlState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E_closeDrainValve.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 3 : Check if the drain valve is already open (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IsDrainValveOpen()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> returns TRUE).
+Step 4 : Call the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drainValveControl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1203,6 +1204,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,24 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1544,53 +1545,53 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -1666,13 +1667,13 @@
       <c r="A16" s="7">
         <v>2</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="8">
         <v>45173</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="6"/>
@@ -1682,130 +1683,130 @@
       <c r="G16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>38</v>
-      </c>
       <c r="H22" s="10" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>6</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>39</v>
+      <c r="D24" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>7</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>8</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>49</v>
+      <c r="D28" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>9</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>53</v>
+      <c r="D30" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1813,16 +1814,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
